--- a/histogram-votes-for-ks.xlsx
+++ b/histogram-votes-for-ks.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="17235" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="17235" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Полный состав КСО" sheetId="2" r:id="rId1"/>
     <sheet name="Гражданский блок" sheetId="6" r:id="rId2"/>
-    <sheet name="Курии" sheetId="8" r:id="rId3"/>
+    <sheet name="Курии" sheetId="10" r:id="rId3"/>
     <sheet name="histogram-votes-for-ks" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -965,11 +965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84490496"/>
-        <c:axId val="84492288"/>
+        <c:axId val="77903744"/>
+        <c:axId val="77905280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84490496"/>
+        <c:axId val="77903744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,7 +979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84492288"/>
+        <c:crossAx val="77905280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -987,7 +987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84492288"/>
+        <c:axId val="77905280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84490496"/>
+        <c:crossAx val="77903744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1273,11 +1273,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="90167168"/>
-        <c:axId val="90202880"/>
+        <c:axId val="78323072"/>
+        <c:axId val="79897728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90167168"/>
+        <c:axId val="78323072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90202880"/>
+        <c:crossAx val="79897728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1295,7 +1295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90202880"/>
+        <c:axId val="79897728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90167168"/>
+        <c:crossAx val="78323072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1332,30 +1332,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Гистограмма</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> избирателей "угадавших" состав КСО по куриям</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1364,7 +1340,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1377,6 +1353,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -1434,7 +1415,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1447,7 +1428,39 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'histogram-votes-for-ks'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'histogram-votes-for-ks'!$E$2:$E$7</c:f>
@@ -1477,7 +1490,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1490,7 +1503,41 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="67000"/>
+              </a:srgbClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'histogram-votes-for-ks'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'histogram-votes-for-ks'!$F$2:$F$7</c:f>
@@ -1528,11 +1575,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88515328"/>
-        <c:axId val="88516864"/>
+        <c:axId val="47585920"/>
+        <c:axId val="65140224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88515328"/>
+        <c:axId val="47585920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88516864"/>
+        <c:crossAx val="65140224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1550,7 +1597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88516864"/>
+        <c:axId val="65140224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,11 +1608,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88515328"/>
+        <c:crossAx val="47585920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1577,7 +1629,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1976,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
